--- a/dataanalysis/alert/0704.xlsx
+++ b/dataanalysis/alert/0704.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="187">
   <si>
     <t>序号</t>
   </si>
@@ -113,6 +113,9 @@
     <t>阳普医疗</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>台基股份</t>
   </si>
   <si>
@@ -221,9 +224,6 @@
     <t>药店</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>山河药辅</t>
   </si>
   <si>
@@ -528,9 +528,6 @@
   </si>
   <si>
     <t>隆扬电子</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>华人健康</t>
@@ -604,7 +601,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +619,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDE322C"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -814,6 +817,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFE9E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC9C7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -821,12 +830,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEFCDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE9E8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,137 +1146,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,8 +1286,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1292,11 +1295,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1304,43 +1347,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1875,10 +1888,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R80"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:V80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1948,11 +1961,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>45842</v>
+      </c>
       <c r="C2" s="4">
         <v>300003</v>
       </c>
@@ -1968,13 +1983,19 @@
       <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="4">
+        <v>-1.15</v>
+      </c>
+      <c r="I2" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1.22</v>
+      </c>
       <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="4">
         <v>2</v>
       </c>
@@ -1990,17 +2011,29 @@
       <c r="Q2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="R2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="13">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="3">
+        <v>45842</v>
+      </c>
       <c r="C3" s="4">
         <v>300016</v>
       </c>
@@ -2016,13 +2049,19 @@
       <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="4">
+        <v>-3.1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10.36</v>
+      </c>
+      <c r="J3" s="8">
+        <v>3.5</v>
+      </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="4">
         <v>10</v>
       </c>
@@ -2038,17 +2077,29 @@
       <c r="Q3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="13">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="3">
+        <v>45842</v>
+      </c>
       <c r="C4" s="4">
         <v>300030</v>
       </c>
@@ -2064,13 +2115,19 @@
       <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
+      <c r="H4" s="4">
+        <v>9.89</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9.36</v>
+      </c>
+      <c r="J4" s="8">
+        <v>17.15</v>
+      </c>
       <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="4">
         <v>2</v>
       </c>
@@ -2086,22 +2143,34 @@
       <c r="Q4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="R4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="3">
+        <v>45842</v>
+      </c>
       <c r="C5" s="4">
         <v>300046</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4">
         <v>-2.56</v>
@@ -2110,15 +2179,21 @@
         <v>40.73</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="I5" s="4">
+        <v>41.17</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1.08</v>
+      </c>
       <c r="K5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="L5" s="10"/>
       <c r="M5" s="4">
         <v>4</v>
       </c>
@@ -2134,22 +2209,34 @@
       <c r="Q5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="R5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="3">
+        <v>45842</v>
+      </c>
       <c r="C6" s="4">
         <v>300130</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4">
         <v>3.5</v>
@@ -2158,15 +2245,21 @@
         <v>33.13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7.43</v>
+      </c>
+      <c r="I6" s="4">
+        <v>35.97</v>
+      </c>
+      <c r="J6" s="8">
+        <v>8.57</v>
+      </c>
       <c r="K6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L6" s="10"/>
       <c r="M6" s="4">
         <v>14</v>
       </c>
@@ -2176,28 +2269,40 @@
       <c r="O6" s="4">
         <v>157784220</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="11">
         <v>0.83</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="R6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="3">
+        <v>45842</v>
+      </c>
       <c r="C7" s="4">
         <v>300149</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4">
         <v>-2.02</v>
@@ -2206,15 +2311,21 @@
         <v>11.17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-3.4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>11.23</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.54</v>
+      </c>
       <c r="K7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="4">
         <v>2</v>
       </c>
@@ -2230,22 +2341,34 @@
       <c r="Q7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="R7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="3">
+        <v>45842</v>
+      </c>
       <c r="C8" s="4">
         <v>300160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4">
         <v>-6.45</v>
@@ -2254,15 +2377,21 @@
         <v>6.38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-2.82</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6.33</v>
+      </c>
+      <c r="J8" s="8">
+        <v>-0.78</v>
+      </c>
       <c r="K8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="L8" s="10"/>
       <c r="M8" s="4">
         <v>2</v>
       </c>
@@ -2278,22 +2407,34 @@
       <c r="Q8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="R8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="3">
+        <v>45842</v>
+      </c>
       <c r="C9" s="4">
         <v>300180</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4">
         <v>1.83</v>
@@ -2302,15 +2443,21 @@
         <v>8.91</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10.66</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10.38</v>
+      </c>
+      <c r="J9" s="8">
+        <v>16.5</v>
+      </c>
       <c r="K9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="4">
         <v>13</v>
       </c>
@@ -2320,28 +2467,40 @@
       <c r="O9" s="4">
         <v>136953500</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="11">
         <v>1.19</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="R9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="3">
+        <v>45842</v>
+      </c>
       <c r="C10" s="4">
         <v>300196</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4">
         <v>0.14</v>
@@ -2350,15 +2509,21 @@
         <v>13.92</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="J10" s="8">
+        <v>4.89</v>
+      </c>
       <c r="K10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="L10" s="10"/>
       <c r="M10" s="4">
         <v>3</v>
       </c>
@@ -2374,22 +2539,34 @@
       <c r="Q10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="R10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="3">
+        <v>45842</v>
+      </c>
       <c r="C11" s="4">
         <v>300199</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4">
         <v>1.71</v>
@@ -2400,13 +2577,19 @@
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
+      <c r="H11" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="I11" s="4">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8">
+        <v>8.17</v>
+      </c>
       <c r="K11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="L11" s="10"/>
       <c r="M11" s="4">
         <v>3</v>
       </c>
@@ -2422,22 +2605,34 @@
       <c r="Q11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="R11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="3">
+        <v>45842</v>
+      </c>
       <c r="C12" s="4">
         <v>300204</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4">
         <v>0.54</v>
@@ -2446,15 +2641,21 @@
         <v>44.88</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-1.69</v>
+      </c>
+      <c r="I12" s="4">
+        <v>47.96</v>
+      </c>
+      <c r="J12" s="8">
+        <v>6.86</v>
+      </c>
       <c r="K12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="4">
         <v>31</v>
       </c>
@@ -2470,22 +2671,34 @@
       <c r="Q12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="R12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="3">
+        <v>45842</v>
+      </c>
       <c r="C13" s="4">
         <v>300269</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4">
         <v>-4.5</v>
@@ -2494,15 +2707,21 @@
         <v>5.52</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5.07</v>
+      </c>
       <c r="K13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="L13" s="10"/>
       <c r="M13" s="4">
         <v>5</v>
       </c>
@@ -2518,22 +2737,34 @@
       <c r="Q13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="R13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="3">
+        <v>45842</v>
+      </c>
       <c r="C14" s="4">
         <v>300340</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="4">
         <v>-8.76</v>
@@ -2542,15 +2773,21 @@
         <v>18.34</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="I14" s="4">
+        <v>18.77</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2.34</v>
+      </c>
       <c r="K14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="4">
         <v>19</v>
       </c>
@@ -2566,22 +2803,34 @@
       <c r="Q14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="R14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="16">
+        <v>1</v>
+      </c>
+      <c r="V14" s="14">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="3">
+        <v>45842</v>
+      </c>
       <c r="C15" s="4">
         <v>300368</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4">
         <v>-0.94</v>
@@ -2590,15 +2839,21 @@
         <v>11.59</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="I15" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>5.26</v>
+      </c>
       <c r="K15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="4">
         <v>2</v>
       </c>
@@ -2614,22 +2869,34 @@
       <c r="Q15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="R15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="3">
+        <v>45842</v>
+      </c>
       <c r="C16" s="4">
         <v>300386</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4">
         <v>3.25</v>
@@ -2638,15 +2905,21 @@
         <v>21.63</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2.45</v>
+      </c>
+      <c r="I16" s="4">
+        <v>22.57</v>
+      </c>
+      <c r="J16" s="8">
+        <v>4.35</v>
+      </c>
       <c r="K16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="L16" s="10"/>
       <c r="M16" s="4">
         <v>8</v>
       </c>
@@ -2656,28 +2929,40 @@
       <c r="O16" s="4">
         <v>33756336</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="11">
         <v>0.35</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="R16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="3">
+        <v>45842</v>
+      </c>
       <c r="C17" s="4">
         <v>300410</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="4">
         <v>-5.2</v>
@@ -2686,15 +2971,21 @@
         <v>7.48</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-0.27</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7.59</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.47</v>
+      </c>
       <c r="K17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="L17" s="10"/>
       <c r="M17" s="4">
         <v>2</v>
       </c>
@@ -2710,22 +3001,34 @@
       <c r="Q17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="R17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="13">
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="3">
+        <v>45842</v>
+      </c>
       <c r="C18" s="4">
         <v>300429</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="4">
         <v>-2.59</v>
@@ -2734,15 +3037,21 @@
         <v>13.93</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="I18" s="4">
+        <v>14.42</v>
+      </c>
+      <c r="J18" s="8">
+        <v>3.52</v>
+      </c>
       <c r="K18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="L18" s="10"/>
       <c r="M18" s="4">
         <v>4</v>
       </c>
@@ -2758,24 +3067,36 @@
       <c r="Q18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="R18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="3">
+        <v>45842</v>
+      </c>
       <c r="C19" s="4">
         <v>300436</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="4">
+        <v>63</v>
+      </c>
+      <c r="E19" s="6">
         <v>20.01</v>
       </c>
       <c r="F19" s="4">
@@ -2784,13 +3105,19 @@
       <c r="G19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="8"/>
+      <c r="H19" s="4">
+        <v>8.86</v>
+      </c>
+      <c r="I19" s="4">
+        <v>60.2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>17.26</v>
+      </c>
       <c r="K19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="L19" s="10"/>
       <c r="M19" s="4">
         <v>2</v>
       </c>
@@ -2800,23 +3127,35 @@
       <c r="O19" s="4">
         <v>112605876</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="11">
         <v>2.3</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="R19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="16">
+        <v>1</v>
+      </c>
+      <c r="V19" s="14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="3">
+        <v>45842</v>
+      </c>
       <c r="C20" s="4">
         <v>300452</v>
       </c>
@@ -2832,13 +3171,19 @@
       <c r="G20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="8"/>
+      <c r="H20" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="I20" s="4">
+        <v>15.05</v>
+      </c>
+      <c r="J20" s="8">
+        <v>4.59</v>
+      </c>
       <c r="K20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="L20" s="10"/>
       <c r="M20" s="4">
         <v>3</v>
       </c>
@@ -2851,20 +3196,32 @@
       <c r="P20" s="4">
         <v>-0.54</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="Q20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" s="13">
+        <v>0</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="3">
+        <v>45842</v>
+      </c>
       <c r="C21" s="4">
         <v>300468</v>
       </c>
@@ -2880,13 +3237,19 @@
       <c r="G21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="8"/>
+      <c r="H21" s="4">
+        <v>3.11</v>
+      </c>
+      <c r="I21" s="4">
+        <v>49.86</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5.61</v>
+      </c>
       <c r="K21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L21" s="10"/>
       <c r="M21" s="4">
         <v>23</v>
       </c>
@@ -2896,23 +3259,35 @@
       <c r="O21" s="4">
         <v>543592030</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="11">
         <v>1.09</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="R21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0</v>
+      </c>
+      <c r="V21" s="14">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="3">
+        <v>45842</v>
+      </c>
       <c r="C22" s="4">
         <v>300485</v>
       </c>
@@ -2928,13 +3303,19 @@
       <c r="G22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="8"/>
+      <c r="H22" s="4">
+        <v>-3.4</v>
+      </c>
+      <c r="I22" s="4">
+        <v>15.36</v>
+      </c>
+      <c r="J22" s="8">
+        <v>4.56</v>
+      </c>
       <c r="K22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="L22" s="10"/>
       <c r="M22" s="4">
         <v>19</v>
       </c>
@@ -2950,17 +3331,29 @@
       <c r="Q22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="R22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="3">
+        <v>45842</v>
+      </c>
       <c r="C23" s="4">
         <v>300515</v>
       </c>
@@ -2976,13 +3369,19 @@
       <c r="G23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="8"/>
+      <c r="H23" s="4">
+        <v>-1.25</v>
+      </c>
+      <c r="I23" s="4">
+        <v>26.85</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1.86</v>
+      </c>
       <c r="K23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="4">
         <v>8</v>
       </c>
@@ -2992,23 +3391,35 @@
       <c r="O23" s="4">
         <v>-16515329</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="11">
         <v>0.58</v>
       </c>
       <c r="Q23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="R23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="14">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="3">
+        <v>45842</v>
+      </c>
       <c r="C24" s="4">
         <v>300516</v>
       </c>
@@ -3024,13 +3435,19 @@
       <c r="G24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="8"/>
+      <c r="H24" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="I24" s="4">
+        <v>40.98</v>
+      </c>
+      <c r="J24" s="8">
+        <v>5.08</v>
+      </c>
       <c r="K24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="4">
         <v>1</v>
       </c>
@@ -3046,17 +3463,29 @@
       <c r="Q24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="R24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="3">
+        <v>45842</v>
+      </c>
       <c r="C25" s="4">
         <v>300527</v>
       </c>
@@ -3072,13 +3501,19 @@
       <c r="G25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="8"/>
+      <c r="H25" s="4">
+        <v>12.17</v>
+      </c>
+      <c r="I25" s="4">
+        <v>12.14</v>
+      </c>
+      <c r="J25" s="8">
+        <v>15.4</v>
+      </c>
       <c r="K25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="4">
         <v>4</v>
       </c>
@@ -3094,17 +3529,29 @@
       <c r="Q25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="R25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="3">
+        <v>45842</v>
+      </c>
       <c r="C26" s="4">
         <v>300531</v>
       </c>
@@ -3118,15 +3565,21 @@
         <v>20.92</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="I26" s="4">
+        <v>22.06</v>
+      </c>
+      <c r="J26" s="8">
+        <v>5.45</v>
+      </c>
       <c r="K26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L26" s="10"/>
       <c r="M26" s="4">
         <v>13</v>
       </c>
@@ -3142,17 +3595,29 @@
       <c r="Q26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="R26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0</v>
+      </c>
+      <c r="V26" s="14">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="3">
+        <v>45842</v>
+      </c>
       <c r="C27" s="4">
         <v>300533</v>
       </c>
@@ -3168,13 +3633,19 @@
       <c r="G27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="8"/>
+      <c r="H27" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="I27" s="4">
+        <v>38.55</v>
+      </c>
+      <c r="J27" s="8">
+        <v>11.32</v>
+      </c>
       <c r="K27" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="4">
         <v>8</v>
       </c>
@@ -3184,23 +3655,35 @@
       <c r="O27" s="4">
         <v>146808222</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="11">
         <v>0.86</v>
       </c>
       <c r="Q27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="R27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="3">
+        <v>45842</v>
+      </c>
       <c r="C28" s="4">
         <v>300537</v>
       </c>
@@ -3214,15 +3697,21 @@
         <v>25.71</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H28" s="4">
+        <v>8.95</v>
+      </c>
+      <c r="I28" s="4">
+        <v>29.88</v>
+      </c>
+      <c r="J28" s="8">
+        <v>16.22</v>
+      </c>
       <c r="K28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="L28" s="10"/>
       <c r="M28" s="4">
         <v>5</v>
       </c>
@@ -3232,23 +3721,35 @@
       <c r="O28" s="4">
         <v>-32596816</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="11">
         <v>1.06</v>
       </c>
       <c r="Q28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="R28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="3">
+        <v>45842</v>
+      </c>
       <c r="C29" s="4">
         <v>300554</v>
       </c>
@@ -3264,13 +3765,19 @@
       <c r="G29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="8"/>
+      <c r="H29" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="I29" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>2.57</v>
+      </c>
       <c r="K29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="L29" s="10"/>
       <c r="M29" s="4">
         <v>2</v>
       </c>
@@ -3286,17 +3793,29 @@
       <c r="Q29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="R29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U29" s="13">
+        <v>0</v>
+      </c>
+      <c r="V29" s="14">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="3">
+        <v>45842</v>
+      </c>
       <c r="C30" s="4">
         <v>300568</v>
       </c>
@@ -3310,15 +3829,21 @@
         <v>12.1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-0.99</v>
+      </c>
+      <c r="I30" s="4">
+        <v>12.16</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.5</v>
+      </c>
       <c r="K30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="L30" s="10"/>
       <c r="M30" s="4">
         <v>4</v>
       </c>
@@ -3334,17 +3859,29 @@
       <c r="Q30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="R30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0</v>
+      </c>
+      <c r="V30" s="14">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="3">
+        <v>45842</v>
+      </c>
       <c r="C31" s="4">
         <v>300581</v>
       </c>
@@ -3360,13 +3897,19 @@
       <c r="G31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="8"/>
+      <c r="H31" s="4">
+        <v>-3.82</v>
+      </c>
+      <c r="I31" s="4">
+        <v>20.84</v>
+      </c>
+      <c r="J31" s="8">
+        <v>-1.65</v>
+      </c>
       <c r="K31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="6"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="4">
         <v>14</v>
       </c>
@@ -3376,23 +3919,35 @@
       <c r="O31" s="4">
         <v>126015330</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="11">
         <v>1.31</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="R31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U31" s="13">
+        <v>0</v>
+      </c>
+      <c r="V31" s="14">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="3">
+        <v>45842</v>
+      </c>
       <c r="C32" s="4">
         <v>300589</v>
       </c>
@@ -3408,13 +3963,19 @@
       <c r="G32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="8"/>
+      <c r="H32" s="4">
+        <v>-1.51</v>
+      </c>
+      <c r="I32" s="4">
+        <v>14.58</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.28</v>
+      </c>
       <c r="K32" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="4">
         <v>4</v>
       </c>
@@ -3430,17 +3991,29 @@
       <c r="Q32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="R32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U32" s="13">
+        <v>0</v>
+      </c>
+      <c r="V32" s="14">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="3">
+        <v>45842</v>
+      </c>
       <c r="C33" s="4">
         <v>300591</v>
       </c>
@@ -3456,13 +4029,19 @@
       <c r="G33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="8"/>
+      <c r="H33" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="I33" s="4">
+        <v>12.88</v>
+      </c>
+      <c r="J33" s="8">
+        <v>11.13</v>
+      </c>
       <c r="K33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="4">
         <v>9</v>
       </c>
@@ -3478,17 +4057,29 @@
       <c r="Q33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="R33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0</v>
+      </c>
+      <c r="V33" s="14">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="3">
+        <v>45842</v>
+      </c>
       <c r="C34" s="4">
         <v>300600</v>
       </c>
@@ -3504,13 +4095,19 @@
       <c r="G34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="8"/>
+      <c r="H34" s="4">
+        <v>7.22</v>
+      </c>
+      <c r="I34" s="4">
+        <v>15.33</v>
+      </c>
+      <c r="J34" s="8">
+        <v>7.43</v>
+      </c>
       <c r="K34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="4">
         <v>6</v>
       </c>
@@ -3526,17 +4123,29 @@
       <c r="Q34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="R34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U34" s="13">
+        <v>0</v>
+      </c>
+      <c r="V34" s="14">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="3">
+        <v>45842</v>
+      </c>
       <c r="C35" s="4">
         <v>300619</v>
       </c>
@@ -3550,15 +4159,21 @@
         <v>25.98</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="I35" s="4">
+        <v>26.48</v>
+      </c>
+      <c r="J35" s="8">
+        <v>1.92</v>
+      </c>
       <c r="K35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="L35" s="10"/>
       <c r="M35" s="4">
         <v>14</v>
       </c>
@@ -3574,17 +4189,29 @@
       <c r="Q35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="R35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U35" s="16">
+        <v>1</v>
+      </c>
+      <c r="V35" s="14">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="3">
+        <v>45842</v>
+      </c>
       <c r="C36" s="4">
         <v>300645</v>
       </c>
@@ -3600,13 +4227,19 @@
       <c r="G36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="8"/>
+      <c r="H36" s="4">
+        <v>-4.37</v>
+      </c>
+      <c r="I36" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="J36" s="8">
+        <v>-2.32</v>
+      </c>
       <c r="K36" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L36" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L36" s="10"/>
       <c r="M36" s="4">
         <v>9</v>
       </c>
@@ -3622,24 +4255,36 @@
       <c r="Q36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="R36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U36" s="13">
+        <v>0</v>
+      </c>
+      <c r="V36" s="14">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="3">
+        <v>45842</v>
+      </c>
       <c r="C37" s="4">
         <v>300649</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="6">
         <v>20</v>
       </c>
       <c r="F37" s="4">
@@ -3648,13 +4293,19 @@
       <c r="G37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="8"/>
+      <c r="H37" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="I37" s="4">
+        <v>24</v>
+      </c>
+      <c r="J37" s="8">
+        <v>14.94</v>
+      </c>
       <c r="K37" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="L37" s="6"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="4">
         <v>6</v>
       </c>
@@ -3664,23 +4315,35 @@
       <c r="O37" s="4">
         <v>-183096150</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="11">
         <v>5.24</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R37" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="R37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U37" s="13">
+        <v>0</v>
+      </c>
+      <c r="V37" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="3">
+        <v>45842</v>
+      </c>
       <c r="C38" s="4">
         <v>300665</v>
       </c>
@@ -3696,13 +4359,19 @@
       <c r="G38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="8"/>
+      <c r="H38" s="4">
+        <v>3.83</v>
+      </c>
+      <c r="I38" s="4">
+        <v>9.46</v>
+      </c>
+      <c r="J38" s="8">
+        <v>6.65</v>
+      </c>
       <c r="K38" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L38" s="6"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="4">
         <v>3</v>
       </c>
@@ -3718,17 +4387,29 @@
       <c r="Q38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="R38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U38" s="13">
+        <v>0</v>
+      </c>
+      <c r="V38" s="14">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="3">
+        <v>45842</v>
+      </c>
       <c r="C39" s="4">
         <v>300670</v>
       </c>
@@ -3744,13 +4425,19 @@
       <c r="G39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="8"/>
+      <c r="H39" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I39" s="4">
+        <v>7.96</v>
+      </c>
+      <c r="J39" s="8">
+        <v>3.24</v>
+      </c>
       <c r="K39" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="L39" s="6"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="4">
         <v>2</v>
       </c>
@@ -3760,23 +4447,35 @@
       <c r="O39" s="4">
         <v>-90608468</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="11">
         <v>1.13</v>
       </c>
-      <c r="Q39" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="Q39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U39" s="13">
+        <v>0</v>
+      </c>
+      <c r="V39" s="14">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="3">
+        <v>45842</v>
+      </c>
       <c r="C40" s="4">
         <v>300682</v>
       </c>
@@ -3792,13 +4491,19 @@
       <c r="G40" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="8"/>
+      <c r="H40" s="4">
+        <v>2.05</v>
+      </c>
+      <c r="I40" s="4">
+        <v>22.84</v>
+      </c>
+      <c r="J40" s="8">
+        <v>4.05</v>
+      </c>
       <c r="K40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L40" s="10"/>
       <c r="M40" s="4">
         <v>15</v>
       </c>
@@ -3808,23 +4513,35 @@
       <c r="O40" s="4">
         <v>17560440</v>
       </c>
-      <c r="P40" s="10">
+      <c r="P40" s="11">
         <v>0.69</v>
       </c>
       <c r="Q40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="R40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U40" s="13">
+        <v>0</v>
+      </c>
+      <c r="V40" s="14">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="3">
+        <v>45842</v>
+      </c>
       <c r="C41" s="4">
         <v>300697</v>
       </c>
@@ -3840,13 +4557,19 @@
       <c r="G41" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="8"/>
+      <c r="H41" s="4">
+        <v>-0.48</v>
+      </c>
+      <c r="I41" s="4">
+        <v>14.74</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.48</v>
+      </c>
       <c r="K41" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="4">
         <v>4</v>
       </c>
@@ -3862,17 +4585,29 @@
       <c r="Q41" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="R41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U41" s="13">
+        <v>0</v>
+      </c>
+      <c r="V41" s="14">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="3">
+        <v>45842</v>
+      </c>
       <c r="C42" s="4">
         <v>300722</v>
       </c>
@@ -3888,13 +4623,19 @@
       <c r="G42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="8"/>
+      <c r="H42" s="4">
+        <v>0.57</v>
+      </c>
+      <c r="I42" s="4">
+        <v>35.74</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1.53</v>
+      </c>
       <c r="K42" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L42" s="6"/>
+      <c r="L42" s="10"/>
       <c r="M42" s="4">
         <v>7</v>
       </c>
@@ -3910,17 +4651,29 @@
       <c r="Q42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="R42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0</v>
+      </c>
+      <c r="V42" s="14">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="3">
+        <v>45842</v>
+      </c>
       <c r="C43" s="4">
         <v>300753</v>
       </c>
@@ -3936,13 +4689,19 @@
       <c r="G43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="8"/>
+      <c r="H43" s="4">
+        <v>-1.68</v>
+      </c>
+      <c r="I43" s="4">
+        <v>33.29</v>
+      </c>
+      <c r="J43" s="8">
+        <v>1.93</v>
+      </c>
       <c r="K43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="6"/>
+      <c r="L43" s="10"/>
       <c r="M43" s="4">
         <v>14</v>
       </c>
@@ -3952,23 +4711,35 @@
       <c r="O43" s="4">
         <v>64687639</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P43" s="11">
         <v>0.72</v>
       </c>
       <c r="Q43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="R43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U43" s="13">
+        <v>0</v>
+      </c>
+      <c r="V43" s="14">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="3">
+        <v>45842</v>
+      </c>
       <c r="C44" s="4">
         <v>300773</v>
       </c>
@@ -3984,13 +4755,19 @@
       <c r="G44" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="8"/>
+      <c r="H44" s="4">
+        <v>4.33</v>
+      </c>
+      <c r="I44" s="4">
+        <v>31.98</v>
+      </c>
+      <c r="J44" s="8">
+        <v>7.42</v>
+      </c>
       <c r="K44" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L44" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L44" s="10"/>
       <c r="M44" s="4">
         <v>22</v>
       </c>
@@ -4000,23 +4777,35 @@
       <c r="O44" s="4">
         <v>-38513730</v>
       </c>
-      <c r="P44" s="10">
+      <c r="P44" s="11">
         <v>0.61</v>
       </c>
       <c r="Q44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="R44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T44" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U44" s="13">
+        <v>0</v>
+      </c>
+      <c r="V44" s="14">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="3">
+        <v>45842</v>
+      </c>
       <c r="C45" s="4">
         <v>300803</v>
       </c>
@@ -4032,13 +4821,19 @@
       <c r="G45" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="8"/>
+      <c r="H45" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="I45" s="4">
+        <v>80.65</v>
+      </c>
+      <c r="J45" s="8">
+        <v>3.74</v>
+      </c>
       <c r="K45" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L45" s="6"/>
+      <c r="L45" s="10"/>
       <c r="M45" s="4">
         <v>6</v>
       </c>
@@ -4048,23 +4843,35 @@
       <c r="O45" s="4">
         <v>273493560</v>
       </c>
-      <c r="P45" s="10">
+      <c r="P45" s="11">
         <v>0.51</v>
       </c>
       <c r="Q45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="R45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U45" s="16">
+        <v>1</v>
+      </c>
+      <c r="V45" s="14">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="3">
+        <v>45842</v>
+      </c>
       <c r="C46" s="4">
         <v>300810</v>
       </c>
@@ -4080,13 +4887,19 @@
       <c r="G46" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="8"/>
+      <c r="H46" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="I46" s="4">
+        <v>46.84</v>
+      </c>
+      <c r="J46" s="8">
+        <v>2</v>
+      </c>
       <c r="K46" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="L46" s="6"/>
+      <c r="L46" s="10"/>
       <c r="M46" s="4">
         <v>3</v>
       </c>
@@ -4102,24 +4915,36 @@
       <c r="Q46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="R46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U46" s="13">
+        <v>0</v>
+      </c>
+      <c r="V46" s="14">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="3">
+        <v>45842</v>
+      </c>
       <c r="C47" s="4">
         <v>300872</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="6">
         <v>10.19</v>
       </c>
       <c r="F47" s="4">
@@ -4128,13 +4953,19 @@
       <c r="G47" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="8"/>
+      <c r="H47" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="I47" s="4">
+        <v>24.09</v>
+      </c>
+      <c r="J47" s="8">
+        <v>5.61</v>
+      </c>
       <c r="K47" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L47" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L47" s="10"/>
       <c r="M47" s="4">
         <v>15</v>
       </c>
@@ -4144,23 +4975,35 @@
       <c r="O47" s="4">
         <v>445555430</v>
       </c>
-      <c r="P47" s="10">
+      <c r="P47" s="11">
         <v>2.42</v>
       </c>
       <c r="Q47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R47" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="R47" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T47" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U47" s="13">
+        <v>0</v>
+      </c>
+      <c r="V47" s="14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="3">
+        <v>45842</v>
+      </c>
       <c r="C48" s="4">
         <v>300875</v>
       </c>
@@ -4176,13 +5019,19 @@
       <c r="G48" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="8"/>
+      <c r="H48" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="I48" s="4">
+        <v>46.98</v>
+      </c>
+      <c r="J48" s="8">
+        <v>2.89</v>
+      </c>
       <c r="K48" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L48" s="6"/>
+      <c r="L48" s="10"/>
       <c r="M48" s="4">
         <v>5</v>
       </c>
@@ -4192,23 +5041,35 @@
       <c r="O48" s="4">
         <v>54878254</v>
       </c>
-      <c r="P48" s="10">
+      <c r="P48" s="11">
         <v>0.72</v>
       </c>
       <c r="Q48" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="R48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U48" s="13">
+        <v>0</v>
+      </c>
+      <c r="V48" s="14">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="3">
+        <v>45842</v>
+      </c>
       <c r="C49" s="4">
         <v>300903</v>
       </c>
@@ -4224,13 +5085,19 @@
       <c r="G49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="8"/>
+      <c r="H49" s="4">
+        <v>-1.86</v>
+      </c>
+      <c r="I49" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="J49" s="8">
+        <v>1.58</v>
+      </c>
       <c r="K49" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="L49" s="6"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="4">
         <v>11</v>
       </c>
@@ -4246,17 +5113,29 @@
       <c r="Q49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="R49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U49" s="16">
+        <v>1</v>
+      </c>
+      <c r="V49" s="14">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="3">
+        <v>45842</v>
+      </c>
       <c r="C50" s="4">
         <v>300971</v>
       </c>
@@ -4272,13 +5151,19 @@
       <c r="G50" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="8"/>
+      <c r="H50" s="4">
+        <v>-0.74</v>
+      </c>
+      <c r="I50" s="4">
+        <v>24.58</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0.61</v>
+      </c>
       <c r="K50" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L50" s="6"/>
+      <c r="L50" s="10"/>
       <c r="M50" s="4">
         <v>4</v>
       </c>
@@ -4294,17 +5179,29 @@
       <c r="Q50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R50" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="R50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U50" s="13">
+        <v>0</v>
+      </c>
+      <c r="V50" s="14">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="3">
+        <v>45842</v>
+      </c>
       <c r="C51" s="4">
         <v>300991</v>
       </c>
@@ -4320,13 +5217,19 @@
       <c r="G51" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="8"/>
+      <c r="H51" s="4">
+        <v>6.12</v>
+      </c>
+      <c r="I51" s="4">
+        <v>32.58</v>
+      </c>
+      <c r="J51" s="8">
+        <v>9.48</v>
+      </c>
       <c r="K51" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="L51" s="6"/>
+      <c r="L51" s="10"/>
       <c r="M51" s="4">
         <v>5</v>
       </c>
@@ -4342,17 +5245,29 @@
       <c r="Q51" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="R51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U51" s="13">
+        <v>0</v>
+      </c>
+      <c r="V51" s="14">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="3">
+        <v>45842</v>
+      </c>
       <c r="C52" s="4">
         <v>300993</v>
       </c>
@@ -4368,13 +5283,19 @@
       <c r="G52" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="8"/>
+      <c r="H52" s="4">
+        <v>4.47</v>
+      </c>
+      <c r="I52" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="J52" s="8">
+        <v>9.9</v>
+      </c>
       <c r="K52" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L52" s="6"/>
+      <c r="L52" s="10"/>
       <c r="M52" s="4">
         <v>5</v>
       </c>
@@ -4390,17 +5311,29 @@
       <c r="Q52" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="R52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T52" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U52" s="13">
+        <v>0</v>
+      </c>
+      <c r="V52" s="14">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="3">
+        <v>45842</v>
+      </c>
       <c r="C53" s="4">
         <v>301007</v>
       </c>
@@ -4416,13 +5349,19 @@
       <c r="G53" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="8"/>
+      <c r="H53" s="4">
+        <v>-2.82</v>
+      </c>
+      <c r="I53" s="4">
+        <v>31.26</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
       <c r="K53" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="L53" s="6"/>
+      <c r="L53" s="10"/>
       <c r="M53" s="4">
         <v>3</v>
       </c>
@@ -4432,30 +5371,42 @@
       <c r="O53" s="4">
         <v>13487826</v>
       </c>
-      <c r="P53" s="10">
+      <c r="P53" s="11">
         <v>1.09</v>
       </c>
       <c r="Q53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R53" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="R53" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U53" s="13">
+        <v>0</v>
+      </c>
+      <c r="V53" s="14">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="6"/>
+      <c r="B54" s="3">
+        <v>45842</v>
+      </c>
       <c r="C54" s="4">
         <v>301024</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="6">
         <v>19.99</v>
       </c>
       <c r="F54" s="4">
@@ -4464,13 +5415,19 @@
       <c r="G54" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="8"/>
+      <c r="H54" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="I54" s="4">
+        <v>62.88</v>
+      </c>
+      <c r="J54" s="8">
+        <v>8.23</v>
+      </c>
       <c r="K54" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L54" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L54" s="10"/>
       <c r="M54" s="4">
         <v>4</v>
       </c>
@@ -4480,23 +5437,35 @@
       <c r="O54" s="4">
         <v>-5324436</v>
       </c>
-      <c r="P54" s="10">
+      <c r="P54" s="11">
         <v>2.37</v>
       </c>
       <c r="Q54" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R54" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="R54" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U54" s="16">
+        <v>1</v>
+      </c>
+      <c r="V54" s="14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="6"/>
+      <c r="B55" s="3">
+        <v>45842</v>
+      </c>
       <c r="C55" s="4">
         <v>301132</v>
       </c>
@@ -4512,13 +5481,19 @@
       <c r="G55" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="8"/>
+      <c r="H55" s="4">
+        <v>-3</v>
+      </c>
+      <c r="I55" s="4">
+        <v>36.89</v>
+      </c>
+      <c r="J55" s="8">
+        <v>1.37</v>
+      </c>
       <c r="K55" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="L55" s="6"/>
+      <c r="L55" s="10"/>
       <c r="M55" s="4">
         <v>9</v>
       </c>
@@ -4528,23 +5503,35 @@
       <c r="O55" s="4">
         <v>-5306787</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P55" s="11">
         <v>0.35</v>
       </c>
-      <c r="Q55" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="Q55" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U55" s="13">
+        <v>0</v>
+      </c>
+      <c r="V55" s="14">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="3">
+        <v>45842</v>
+      </c>
       <c r="C56" s="4">
         <v>301137</v>
       </c>
@@ -4560,13 +5547,19 @@
       <c r="G56" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="8"/>
+      <c r="H56" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="I56" s="4">
+        <v>40.6</v>
+      </c>
+      <c r="J56" s="8">
+        <v>5.7</v>
+      </c>
       <c r="K56" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="L56" s="6"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="4">
         <v>5</v>
       </c>
@@ -4582,17 +5575,29 @@
       <c r="Q56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="R56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T56" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U56" s="13">
+        <v>0</v>
+      </c>
+      <c r="V56" s="14">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="6"/>
+      <c r="B57" s="3">
+        <v>45842</v>
+      </c>
       <c r="C57" s="4">
         <v>301141</v>
       </c>
@@ -4608,13 +5613,19 @@
       <c r="G57" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="8"/>
+      <c r="H57" s="4">
+        <v>10.46</v>
+      </c>
+      <c r="I57" s="4">
+        <v>65.39</v>
+      </c>
+      <c r="J57" s="8">
+        <v>11.59</v>
+      </c>
       <c r="K57" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L57" s="6"/>
+      <c r="L57" s="10"/>
       <c r="M57" s="4">
         <v>6</v>
       </c>
@@ -4630,17 +5641,29 @@
       <c r="Q57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="R57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T57" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U57" s="13">
+        <v>0</v>
+      </c>
+      <c r="V57" s="14">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="3">
+        <v>45842</v>
+      </c>
       <c r="C58" s="4">
         <v>301150</v>
       </c>
@@ -4656,13 +5679,19 @@
       <c r="G58" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="8"/>
+      <c r="H58" s="4">
+        <v>-4.39</v>
+      </c>
+      <c r="I58" s="4">
+        <v>25.18</v>
+      </c>
+      <c r="J58" s="8">
+        <v>3.32</v>
+      </c>
       <c r="K58" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L58" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="L58" s="10"/>
       <c r="M58" s="4">
         <v>2</v>
       </c>
@@ -4678,17 +5707,29 @@
       <c r="Q58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="R58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U58" s="13">
+        <v>0</v>
+      </c>
+      <c r="V58" s="14">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="6"/>
+      <c r="B59" s="3">
+        <v>45842</v>
+      </c>
       <c r="C59" s="4">
         <v>301176</v>
       </c>
@@ -4704,13 +5745,19 @@
       <c r="G59" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="8"/>
+      <c r="H59" s="4">
+        <v>-8.59</v>
+      </c>
+      <c r="I59" s="4">
+        <v>34.17</v>
+      </c>
+      <c r="J59" s="8">
+        <v>-1.19</v>
+      </c>
       <c r="K59" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="L59" s="6"/>
+      <c r="L59" s="10"/>
       <c r="M59" s="4">
         <v>11</v>
       </c>
@@ -4720,23 +5767,35 @@
       <c r="O59" s="4">
         <v>34333288</v>
       </c>
-      <c r="P59" s="10">
+      <c r="P59" s="11">
         <v>1.89</v>
       </c>
       <c r="Q59" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="R59" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T59" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U59" s="16">
+        <v>1</v>
+      </c>
+      <c r="V59" s="14">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="6"/>
+      <c r="B60" s="3">
+        <v>45842</v>
+      </c>
       <c r="C60" s="4">
         <v>301205</v>
       </c>
@@ -4752,13 +5811,19 @@
       <c r="G60" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="8"/>
+      <c r="H60" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="I60" s="4">
+        <v>95.01</v>
+      </c>
+      <c r="J60" s="8">
+        <v>2.86</v>
+      </c>
       <c r="K60" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="L60" s="6"/>
+      <c r="L60" s="10"/>
       <c r="M60" s="4">
         <v>3</v>
       </c>
@@ -4774,17 +5839,29 @@
       <c r="Q60" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="R60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U60" s="13">
+        <v>0</v>
+      </c>
+      <c r="V60" s="14">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="3">
+        <v>45842</v>
+      </c>
       <c r="C61" s="4">
         <v>301206</v>
       </c>
@@ -4800,13 +5877,19 @@
       <c r="G61" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="8"/>
+      <c r="H61" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="I61" s="4">
+        <v>31.95</v>
+      </c>
+      <c r="J61" s="8">
+        <v>3.97</v>
+      </c>
       <c r="K61" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="L61" s="6"/>
+      <c r="L61" s="10"/>
       <c r="M61" s="4">
         <v>2</v>
       </c>
@@ -4822,17 +5905,29 @@
       <c r="Q61" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="R61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U61" s="13">
+        <v>0</v>
+      </c>
+      <c r="V61" s="14">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="3">
+        <v>45842</v>
+      </c>
       <c r="C62" s="4">
         <v>301306</v>
       </c>
@@ -4848,13 +5943,19 @@
       <c r="G62" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="8"/>
+      <c r="H62" s="4">
+        <v>3.42</v>
+      </c>
+      <c r="I62" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="J62" s="8">
+        <v>4.65</v>
+      </c>
       <c r="K62" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="L62" s="10"/>
       <c r="M62" s="4">
         <v>1</v>
       </c>
@@ -4870,17 +5971,29 @@
       <c r="Q62" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="R62" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S62" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T62" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U62" s="13">
+        <v>0</v>
+      </c>
+      <c r="V62" s="14">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="6"/>
+      <c r="B63" s="3">
+        <v>45842</v>
+      </c>
       <c r="C63" s="4">
         <v>301312</v>
       </c>
@@ -4896,13 +6009,19 @@
       <c r="G63" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="8"/>
+      <c r="H63" s="4">
+        <v>-0.19</v>
+      </c>
+      <c r="I63" s="4">
+        <v>43.43</v>
+      </c>
+      <c r="J63" s="8">
+        <v>1.71</v>
+      </c>
       <c r="K63" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L63" s="6"/>
+      <c r="L63" s="10"/>
       <c r="M63" s="4">
         <v>6</v>
       </c>
@@ -4918,17 +6037,29 @@
       <c r="Q63" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R63" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="R63" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S63" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U63" s="13">
+        <v>0</v>
+      </c>
+      <c r="V63" s="14">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="6"/>
+      <c r="B64" s="3">
+        <v>45842</v>
+      </c>
       <c r="C64" s="4">
         <v>301345</v>
       </c>
@@ -4944,13 +6075,19 @@
       <c r="G64" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="8"/>
+      <c r="H64" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="I64" s="4">
+        <v>136.76</v>
+      </c>
+      <c r="J64" s="8">
+        <v>1.3</v>
+      </c>
       <c r="K64" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L64" s="6"/>
+      <c r="L64" s="10"/>
       <c r="M64" s="4">
         <v>4</v>
       </c>
@@ -4960,23 +6097,35 @@
       <c r="O64" s="4">
         <v>-100796433</v>
       </c>
-      <c r="P64" s="10">
+      <c r="P64" s="11">
         <v>0.65</v>
       </c>
       <c r="Q64" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="R64" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S64" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T64" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U64" s="13">
+        <v>0</v>
+      </c>
+      <c r="V64" s="14">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="6"/>
+      <c r="B65" s="3">
+        <v>45842</v>
+      </c>
       <c r="C65" s="4">
         <v>301357</v>
       </c>
@@ -4992,13 +6141,19 @@
       <c r="G65" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="8"/>
+      <c r="H65" s="4">
+        <v>5</v>
+      </c>
+      <c r="I65" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="J65" s="8">
+        <v>5.63</v>
+      </c>
       <c r="K65" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L65" s="6"/>
+      <c r="L65" s="10"/>
       <c r="M65" s="4">
         <v>2</v>
       </c>
@@ -5014,17 +6169,29 @@
       <c r="Q65" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="R65" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S65" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T65" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U65" s="13">
+        <v>0</v>
+      </c>
+      <c r="V65" s="14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="6"/>
+      <c r="B66" s="3">
+        <v>45842</v>
+      </c>
       <c r="C66" s="4">
         <v>301379</v>
       </c>
@@ -5040,13 +6207,19 @@
       <c r="G66" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="8"/>
+      <c r="H66" s="4">
+        <v>-2.24</v>
+      </c>
+      <c r="I66" s="4">
+        <v>27</v>
+      </c>
+      <c r="J66" s="8">
+        <v>1.01</v>
+      </c>
       <c r="K66" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L66" s="6"/>
+      <c r="L66" s="10"/>
       <c r="M66" s="4">
         <v>9</v>
       </c>
@@ -5062,24 +6235,36 @@
       <c r="Q66" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="R66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U66" s="13">
+        <v>0</v>
+      </c>
+      <c r="V66" s="14">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="6"/>
+      <c r="B67" s="3">
+        <v>45842</v>
+      </c>
       <c r="C67" s="4">
         <v>301389</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="6">
         <v>20</v>
       </c>
       <c r="F67" s="4">
@@ -5088,13 +6273,19 @@
       <c r="G67" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="L67" s="6"/>
+      <c r="H67" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="I67" s="4">
+        <v>34.42</v>
+      </c>
+      <c r="J67" s="8">
+        <v>7.83</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="10"/>
       <c r="M67" s="4">
         <v>1</v>
       </c>
@@ -5104,28 +6295,40 @@
       <c r="O67" s="4">
         <v>-15779416</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P67" s="11">
         <v>3.2</v>
       </c>
       <c r="Q67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R67" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="R67" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S67" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T67" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U67" s="16">
+        <v>1</v>
+      </c>
+      <c r="V67" s="14">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="6"/>
+      <c r="B68" s="3">
+        <v>45842</v>
+      </c>
       <c r="C68" s="4">
         <v>301408</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E68" s="4">
         <v>0.56</v>
@@ -5134,15 +6337,21 @@
         <v>14.32</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="I68" s="4">
+        <v>15.25</v>
+      </c>
+      <c r="J68" s="8">
+        <v>6.49</v>
+      </c>
       <c r="K68" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L68" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="L68" s="10"/>
       <c r="M68" s="4">
         <v>4</v>
       </c>
@@ -5152,28 +6361,40 @@
       <c r="O68" s="4">
         <v>-38025359</v>
       </c>
-      <c r="P68" s="10">
+      <c r="P68" s="11">
         <v>0.64</v>
       </c>
       <c r="Q68" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="R68" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T68" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U68" s="13">
+        <v>0</v>
+      </c>
+      <c r="V68" s="14">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="6"/>
+      <c r="B69" s="3">
+        <v>45842</v>
+      </c>
       <c r="C69" s="4">
         <v>301421</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E69" s="4">
         <v>-1.05</v>
@@ -5182,15 +6403,21 @@
         <v>73.62</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="H69" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="I69" s="4">
+        <v>75.46</v>
+      </c>
+      <c r="J69" s="8">
+        <v>2.5</v>
+      </c>
       <c r="K69" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="L69" s="6"/>
+      <c r="L69" s="10"/>
       <c r="M69" s="4">
         <v>10</v>
       </c>
@@ -5206,22 +6433,34 @@
       <c r="Q69" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="R69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U69" s="13">
+        <v>0</v>
+      </c>
+      <c r="V69" s="14">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="6"/>
+      <c r="B70" s="3">
+        <v>45842</v>
+      </c>
       <c r="C70" s="4">
         <v>301511</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E70" s="4">
         <v>3.92</v>
@@ -5232,13 +6471,19 @@
       <c r="G70" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="8"/>
+      <c r="H70" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="I70" s="4">
+        <v>28.49</v>
+      </c>
+      <c r="J70" s="8">
+        <v>16.76</v>
+      </c>
       <c r="K70" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L70" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="L70" s="10"/>
       <c r="M70" s="4">
         <v>9</v>
       </c>
@@ -5254,22 +6499,34 @@
       <c r="Q70" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="R70" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S70" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T70" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U70" s="13">
+        <v>0</v>
+      </c>
+      <c r="V70" s="14">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="6"/>
+      <c r="B71" s="3">
+        <v>45842</v>
+      </c>
       <c r="C71" s="4">
         <v>301533</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E71" s="4">
         <v>-9.59</v>
@@ -5278,15 +6535,21 @@
         <v>41.03</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="L71" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="H71" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="I71" s="4">
+        <v>42.93</v>
+      </c>
+      <c r="J71" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="10"/>
       <c r="M71" s="4">
         <v>1</v>
       </c>
@@ -5302,20 +6565,34 @@
       <c r="Q71" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R71" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="R71" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S71" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T71" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U71" s="13">
+        <v>0</v>
+      </c>
+      <c r="V71" s="14">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="6"/>
+      <c r="B72" s="3">
+        <v>45842</v>
+      </c>
       <c r="C72" s="4">
         <v>688062</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E72" s="4">
         <v>0.49</v>
@@ -5324,15 +6601,21 @@
         <v>30.63</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="I72" s="4">
+        <v>33.68</v>
+      </c>
+      <c r="J72" s="8">
+        <v>9.96</v>
+      </c>
       <c r="K72" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L72" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="L72" s="10"/>
       <c r="M72" s="4">
         <v>2</v>
       </c>
@@ -5348,20 +6631,34 @@
       <c r="Q72" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R72" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="R72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T72" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U72" s="13">
+        <v>0</v>
+      </c>
+      <c r="V72" s="14">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="6"/>
+      <c r="B73" s="3">
+        <v>45842</v>
+      </c>
       <c r="C73" s="4">
         <v>688117</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E73" s="4">
         <v>4.87</v>
@@ -5370,15 +6667,21 @@
         <v>35.29</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="H73" s="4">
+        <v>-0.77</v>
+      </c>
+      <c r="I73" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="J73" s="8">
+        <v>3.71</v>
+      </c>
       <c r="K73" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L73" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="L73" s="10"/>
       <c r="M73" s="4">
         <v>19</v>
       </c>
@@ -5394,20 +6697,34 @@
       <c r="Q73" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R73" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="R73" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S73" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T73" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U73" s="13">
+        <v>0</v>
+      </c>
+      <c r="V73" s="14">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="6"/>
+      <c r="B74" s="3">
+        <v>45842</v>
+      </c>
       <c r="C74" s="4">
         <v>688199</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E74" s="4">
         <v>-2.5</v>
@@ -5416,15 +6733,21 @@
         <v>26.49</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="I74" s="4">
+        <v>27.88</v>
+      </c>
+      <c r="J74" s="8">
+        <v>5.25</v>
+      </c>
       <c r="K74" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="L74" s="6"/>
+      <c r="L74" s="10"/>
       <c r="M74" s="4">
         <v>2</v>
       </c>
@@ -5440,20 +6763,34 @@
       <c r="Q74" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R74" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="R74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T74" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U74" s="13">
+        <v>0</v>
+      </c>
+      <c r="V74" s="14">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="6"/>
+      <c r="B75" s="3">
+        <v>45842</v>
+      </c>
       <c r="C75" s="4">
         <v>688321</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E75" s="4">
         <v>0.58</v>
@@ -5464,13 +6801,19 @@
       <c r="G75" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="8"/>
+      <c r="H75" s="4">
+        <v>5.81</v>
+      </c>
+      <c r="I75" s="4">
+        <v>34.95</v>
+      </c>
+      <c r="J75" s="8">
+        <v>12.74</v>
+      </c>
       <c r="K75" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L75" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="L75" s="10"/>
       <c r="M75" s="4">
         <v>1</v>
       </c>
@@ -5486,20 +6829,34 @@
       <c r="Q75" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R75" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="R75" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S75" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T75" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U75" s="13">
+        <v>0</v>
+      </c>
+      <c r="V75" s="14">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="6"/>
+      <c r="B76" s="3">
+        <v>45842</v>
+      </c>
       <c r="C76" s="4">
         <v>688353</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E76" s="4">
         <v>-9.05</v>
@@ -5508,15 +6865,21 @@
         <v>36.2</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="H76" s="4">
+        <v>-5.36</v>
+      </c>
+      <c r="I76" s="4">
+        <v>36.45</v>
+      </c>
+      <c r="J76" s="8">
+        <v>0.69</v>
+      </c>
       <c r="K76" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L76" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="L76" s="10"/>
       <c r="M76" s="4">
         <v>2</v>
       </c>
@@ -5532,20 +6895,34 @@
       <c r="Q76" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R76" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="R76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U76" s="13">
+        <v>0</v>
+      </c>
+      <c r="V76" s="14">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="6"/>
+      <c r="B77" s="3">
+        <v>45842</v>
+      </c>
       <c r="C77" s="4">
         <v>688499</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E77" s="4">
         <v>-0.58</v>
@@ -5554,15 +6931,21 @@
         <v>39.62</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="I77" s="4">
+        <v>40.1</v>
+      </c>
+      <c r="J77" s="8">
+        <v>1.21</v>
+      </c>
       <c r="K77" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L77" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="L77" s="10"/>
       <c r="M77" s="4">
         <v>14</v>
       </c>
@@ -5578,20 +6961,34 @@
       <c r="Q77" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R77" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="R77" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S77" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T77" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U77" s="13">
+        <v>0</v>
+      </c>
+      <c r="V77" s="14">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="6"/>
+      <c r="B78" s="3">
+        <v>45842</v>
+      </c>
       <c r="C78" s="4">
         <v>688543</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E78" s="4">
         <v>-0.89</v>
@@ -5602,13 +6999,19 @@
       <c r="G78" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="8"/>
+      <c r="H78" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="I78" s="4">
+        <v>57.54</v>
+      </c>
+      <c r="J78" s="8">
+        <v>1.12</v>
+      </c>
       <c r="K78" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L78" s="6"/>
+      <c r="L78" s="10"/>
       <c r="M78" s="4">
         <v>8</v>
       </c>
@@ -5624,18 +7027,34 @@
       <c r="Q78" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R78" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="R78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U78" s="13">
+        <v>0</v>
+      </c>
+      <c r="V78" s="14">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45842</v>
+      </c>
       <c r="C79" s="4">
         <v>688573</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E79" s="4">
         <v>-12.03</v>
@@ -5644,15 +7063,21 @@
         <v>30.7</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="H79" s="4">
+        <v>-1.01</v>
+      </c>
+      <c r="I79" s="4">
+        <v>31.39</v>
+      </c>
+      <c r="J79" s="8">
+        <v>2.25</v>
+      </c>
       <c r="K79" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L79" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="L79" s="10"/>
       <c r="M79" s="4">
         <v>17</v>
       </c>
@@ -5668,18 +7093,34 @@
       <c r="Q79" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R79" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
+      <c r="R79" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S79" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T79" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U79" s="13">
+        <v>0</v>
+      </c>
+      <c r="V79" s="14">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>45842</v>
+      </c>
       <c r="C80" s="4">
         <v>688591</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E80" s="4">
         <v>-1.74</v>
@@ -5688,15 +7129,21 @@
         <v>47.55</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="H80" s="4">
+        <v>-0.95</v>
+      </c>
+      <c r="I80" s="4">
+        <v>48.37</v>
+      </c>
+      <c r="J80" s="8">
+        <v>1.72</v>
+      </c>
       <c r="K80" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L80" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="L80" s="10"/>
       <c r="M80" s="4">
         <v>6</v>
       </c>
@@ -5712,209 +7159,221 @@
       <c r="Q80" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R80" s="11" t="s">
-        <v>23</v>
+      <c r="R80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U80" s="16">
+        <v>1</v>
+      </c>
+      <c r="V80" s="14">
+        <v>7.76</v>
       </c>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="21"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="25"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="14"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="21"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="25"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="22"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="26"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="22"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="26"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="14"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="21"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="25"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="14"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="14"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="22"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="26"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="14"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="22"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="26"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="14"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="22"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="26"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="14"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="22"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="23"/>
+      <c r="R90" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataanalysis/alert/0704.xlsx
+++ b/dataanalysis/alert/0704.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="14605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="189">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>最高价</t>
+  </si>
+  <si>
+    <t>AI预测</t>
+  </si>
+  <si>
+    <t>AI幅度</t>
   </si>
   <si>
     <t>乐普医疗</t>
@@ -1276,7 +1282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1313,6 +1319,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1326,35 +1338,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1631,13 +1616,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1890,16 +1868,16 @@
   <sheetPr/>
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="14" max="15" width="11.5"/>
+    <col min="14" max="15" width="11.5045045045045"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:20">
+    <row r="1" ht="24.85" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1959,6 +1937,12 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1972,7 +1956,7 @@
         <v>300003</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4">
         <v>-1.08</v>
@@ -1981,7 +1965,7 @@
         <v>15.61</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4">
         <v>-1.15</v>
@@ -1993,7 +1977,7 @@
         <v>1.22</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="4">
@@ -2009,21 +1993,21 @@
         <v>-0.41</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="13">
+        <v>25</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="15">
         <v>0</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="16">
         <v>2.75</v>
       </c>
     </row>
@@ -2038,7 +2022,7 @@
         <v>300016</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4">
         <v>1.83</v>
@@ -2047,7 +2031,7 @@
         <v>10.01</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4">
         <v>-3.1</v>
@@ -2059,7 +2043,7 @@
         <v>3.5</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="4">
@@ -2075,21 +2059,21 @@
         <v>-0.31</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="13">
+        <v>25</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="15">
         <v>0</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="16">
         <v>1.9</v>
       </c>
     </row>
@@ -2104,7 +2088,7 @@
         <v>300030</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4">
         <v>2.44</v>
@@ -2113,7 +2097,7 @@
         <v>7.99</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4">
         <v>9.89</v>
@@ -2125,7 +2109,7 @@
         <v>17.15</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="4">
@@ -2141,21 +2125,21 @@
         <v>-0.12</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="13">
+        <v>25</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="15">
         <v>0</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="16">
         <v>0.62</v>
       </c>
     </row>
@@ -2170,7 +2154,7 @@
         <v>300046</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4">
         <v>-2.56</v>
@@ -2179,7 +2163,7 @@
         <v>40.73</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4">
         <v>-0.76</v>
@@ -2191,7 +2175,7 @@
         <v>1.08</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="4">
@@ -2207,21 +2191,21 @@
         <v>-0.76</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="13">
+        <v>25</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="15">
         <v>0</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="16">
         <v>5.52</v>
       </c>
     </row>
@@ -2236,7 +2220,7 @@
         <v>300130</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>3.5</v>
@@ -2245,7 +2229,7 @@
         <v>33.13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4">
         <v>7.43</v>
@@ -2257,7 +2241,7 @@
         <v>8.57</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="4">
@@ -2273,21 +2257,21 @@
         <v>0.83</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="13">
+        <v>25</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="15">
         <v>0</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="16">
         <v>1.29</v>
       </c>
     </row>
@@ -2302,7 +2286,7 @@
         <v>300149</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4">
         <v>-2.02</v>
@@ -2311,7 +2295,7 @@
         <v>11.17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4">
         <v>-3.4</v>
@@ -2323,7 +2307,7 @@
         <v>0.54</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="4">
@@ -2339,21 +2323,21 @@
         <v>-0.27</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="13">
+        <v>25</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="15">
         <v>0</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="16">
         <v>4.68</v>
       </c>
     </row>
@@ -2368,7 +2352,7 @@
         <v>300160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4">
         <v>-6.45</v>
@@ -2377,7 +2361,7 @@
         <v>6.38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="4">
         <v>-2.82</v>
@@ -2389,7 +2373,7 @@
         <v>-0.78</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="4">
@@ -2405,21 +2389,21 @@
         <v>-0.34</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="13">
+        <v>25</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="15">
         <v>0</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="16">
         <v>3.8</v>
       </c>
     </row>
@@ -2434,7 +2418,7 @@
         <v>300180</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4">
         <v>1.83</v>
@@ -2443,7 +2427,7 @@
         <v>8.91</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4">
         <v>10.66</v>
@@ -2455,7 +2439,7 @@
         <v>16.5</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="4">
@@ -2471,21 +2455,21 @@
         <v>1.19</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="13">
+        <v>25</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="15">
         <v>0</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="16">
         <v>6.47</v>
       </c>
     </row>
@@ -2500,7 +2484,7 @@
         <v>300196</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4">
         <v>0.14</v>
@@ -2509,7 +2493,7 @@
         <v>13.92</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4">
         <v>3.3</v>
@@ -2521,7 +2505,7 @@
         <v>4.89</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="4">
@@ -2537,21 +2521,21 @@
         <v>0.1</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="13">
+        <v>25</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="15">
         <v>0</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="16">
         <v>1.03</v>
       </c>
     </row>
@@ -2566,7 +2550,7 @@
         <v>300199</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4">
         <v>1.71</v>
@@ -2575,7 +2559,7 @@
         <v>18.49</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H11" s="4">
         <v>2.11</v>
@@ -2587,7 +2571,7 @@
         <v>8.17</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="4">
@@ -2603,21 +2587,21 @@
         <v>-1.72</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="13">
+        <v>25</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="15">
         <v>0</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="16">
         <v>-1.8</v>
       </c>
     </row>
@@ -2632,7 +2616,7 @@
         <v>300204</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4">
         <v>0.54</v>
@@ -2641,7 +2625,7 @@
         <v>44.88</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4">
         <v>-1.69</v>
@@ -2653,7 +2637,7 @@
         <v>6.86</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="4">
@@ -2669,21 +2653,21 @@
         <v>0.1</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U12" s="13">
+        <v>25</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="15">
         <v>0</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="16">
         <v>11.87</v>
       </c>
     </row>
@@ -2698,7 +2682,7 @@
         <v>300269</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4">
         <v>-4.5</v>
@@ -2707,7 +2691,7 @@
         <v>5.52</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" s="4">
         <v>1.81</v>
@@ -2719,7 +2703,7 @@
         <v>5.07</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="4">
@@ -2735,21 +2719,21 @@
         <v>-1.16</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" s="13">
+        <v>25</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="15">
         <v>0</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="16">
         <v>2.31</v>
       </c>
     </row>
@@ -2764,7 +2748,7 @@
         <v>300340</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4">
         <v>-8.76</v>
@@ -2773,7 +2757,7 @@
         <v>18.34</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14" s="4">
         <v>0.71</v>
@@ -2785,7 +2769,7 @@
         <v>2.34</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="4">
@@ -2801,21 +2785,21 @@
         <v>-1.7</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="16">
+        <v>25</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="18">
         <v>1</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="16">
         <v>-0.17</v>
       </c>
     </row>
@@ -2830,7 +2814,7 @@
         <v>300368</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4">
         <v>-0.94</v>
@@ -2839,7 +2823,7 @@
         <v>11.59</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="4">
         <v>1.9</v>
@@ -2851,7 +2835,7 @@
         <v>5.26</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="4">
@@ -2867,21 +2851,21 @@
         <v>-1.07</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U15" s="13">
+        <v>25</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="15">
         <v>0</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="16">
         <v>1.51</v>
       </c>
     </row>
@@ -2896,7 +2880,7 @@
         <v>300386</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4">
         <v>3.25</v>
@@ -2905,7 +2889,7 @@
         <v>21.63</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H16" s="4">
         <v>2.45</v>
@@ -2917,7 +2901,7 @@
         <v>4.35</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="4">
@@ -2933,21 +2917,21 @@
         <v>0.35</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U16" s="13">
+        <v>25</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="15">
         <v>0</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="16">
         <v>1.93</v>
       </c>
     </row>
@@ -2962,7 +2946,7 @@
         <v>300410</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4">
         <v>-5.2</v>
@@ -2971,7 +2955,7 @@
         <v>7.48</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H17" s="4">
         <v>-0.27</v>
@@ -2983,7 +2967,7 @@
         <v>1.47</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="4">
@@ -2999,21 +2983,21 @@
         <v>-1.43</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" s="13">
+        <v>25</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="15">
         <v>0</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="16">
         <v>0.85</v>
       </c>
     </row>
@@ -3028,7 +3012,7 @@
         <v>300429</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4">
         <v>-2.59</v>
@@ -3037,7 +3021,7 @@
         <v>13.93</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H18" s="4">
         <v>0.93</v>
@@ -3049,7 +3033,7 @@
         <v>3.52</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="4">
@@ -3065,21 +3049,21 @@
         <v>-0.78</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="13">
+        <v>25</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="15">
         <v>0</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="16">
         <v>0.02</v>
       </c>
     </row>
@@ -3094,7 +3078,7 @@
         <v>300436</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" s="6">
         <v>20.01</v>
@@ -3103,7 +3087,7 @@
         <v>51.34</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H19" s="4">
         <v>8.86</v>
@@ -3115,7 +3099,7 @@
         <v>17.26</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="4">
@@ -3131,21 +3115,21 @@
         <v>2.3</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" s="16">
+        <v>25</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="18">
         <v>1</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="16">
         <v>2.25</v>
       </c>
     </row>
@@ -3160,7 +3144,7 @@
         <v>300452</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20" s="4">
         <v>-5.33</v>
@@ -3169,7 +3153,7 @@
         <v>14.39</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" s="4">
         <v>-0.9</v>
@@ -3181,7 +3165,7 @@
         <v>4.59</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="4">
@@ -3196,22 +3180,22 @@
       <c r="P20" s="4">
         <v>-0.54</v>
       </c>
-      <c r="Q20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U20" s="13">
+      <c r="Q20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="15">
         <v>0</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="16">
         <v>0.76</v>
       </c>
     </row>
@@ -3226,7 +3210,7 @@
         <v>300468</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" s="4">
         <v>6.4</v>
@@ -3235,7 +3219,7 @@
         <v>47.21</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H21" s="4">
         <v>3.11</v>
@@ -3247,7 +3231,7 @@
         <v>5.61</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="4">
@@ -3263,21 +3247,21 @@
         <v>1.09</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U21" s="13">
+        <v>25</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="15">
         <v>0</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="16">
         <v>1.97</v>
       </c>
     </row>
@@ -3292,7 +3276,7 @@
         <v>300485</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" s="4">
         <v>-2.84</v>
@@ -3301,7 +3285,7 @@
         <v>14.69</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" s="4">
         <v>-3.4</v>
@@ -3313,7 +3297,7 @@
         <v>4.56</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="4">
@@ -3329,21 +3313,21 @@
         <v>-0.32</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="13">
+        <v>25</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="15">
         <v>0</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V22" s="16">
         <v>3.56</v>
       </c>
     </row>
@@ -3358,7 +3342,7 @@
         <v>300515</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E23" s="4">
         <v>2.65</v>
@@ -3367,7 +3351,7 @@
         <v>26.36</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H23" s="4">
         <v>-1.25</v>
@@ -3379,7 +3363,7 @@
         <v>1.86</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="4">
@@ -3395,21 +3379,21 @@
         <v>0.58</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U23" s="13">
+        <v>25</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="15">
         <v>0</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="16">
         <v>-0.35</v>
       </c>
     </row>
@@ -3424,7 +3408,7 @@
         <v>300516</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="4">
         <v>-9.2</v>
@@ -3433,7 +3417,7 @@
         <v>39</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H24" s="4">
         <v>3.33</v>
@@ -3445,7 +3429,7 @@
         <v>5.08</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="4">
@@ -3461,21 +3445,21 @@
         <v>-0.94</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U24" s="13">
+        <v>25</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="15">
         <v>0</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V24" s="16">
         <v>5.38</v>
       </c>
     </row>
@@ -3490,7 +3474,7 @@
         <v>300527</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4">
         <v>-5.23</v>
@@ -3499,7 +3483,7 @@
         <v>10.52</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H25" s="4">
         <v>12.17</v>
@@ -3511,7 +3495,7 @@
         <v>15.4</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="4">
@@ -3527,21 +3511,21 @@
         <v>-0.79</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U25" s="13">
+        <v>25</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" s="15">
         <v>0</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="16">
         <v>3.19</v>
       </c>
     </row>
@@ -3556,7 +3540,7 @@
         <v>300531</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4">
         <v>0.29</v>
@@ -3565,7 +3549,7 @@
         <v>20.92</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26" s="4">
         <v>4.3</v>
@@ -3577,7 +3561,7 @@
         <v>5.45</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="4">
@@ -3593,21 +3577,21 @@
         <v>0.19</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U26" s="13">
+        <v>25</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" s="15">
         <v>0</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V26" s="16">
         <v>1.03</v>
       </c>
     </row>
@@ -3622,7 +3606,7 @@
         <v>300533</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E27" s="4">
         <v>6.36</v>
@@ -3631,7 +3615,7 @@
         <v>34.63</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H27" s="4">
         <v>2.95</v>
@@ -3643,7 +3627,7 @@
         <v>11.32</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="4">
@@ -3659,21 +3643,21 @@
         <v>0.86</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U27" s="13">
+        <v>25</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="15">
         <v>0</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="16">
         <v>3.5</v>
       </c>
     </row>
@@ -3688,7 +3672,7 @@
         <v>300537</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E28" s="4">
         <v>1.3</v>
@@ -3697,7 +3681,7 @@
         <v>25.71</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H28" s="4">
         <v>8.95</v>
@@ -3709,7 +3693,7 @@
         <v>16.22</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="4">
@@ -3725,21 +3709,21 @@
         <v>1.06</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U28" s="13">
+        <v>25</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="15">
         <v>0</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="16">
         <v>3.28</v>
       </c>
     </row>
@@ -3754,7 +3738,7 @@
         <v>300554</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E29" s="4">
         <v>-6.17</v>
@@ -3763,7 +3747,7 @@
         <v>24.47</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" s="4">
         <v>2.08</v>
@@ -3775,7 +3759,7 @@
         <v>2.57</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="4">
@@ -3791,21 +3775,21 @@
         <v>-1.25</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="13">
+        <v>25</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" s="15">
         <v>0</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="16">
         <v>7.69</v>
       </c>
     </row>
@@ -3820,7 +3804,7 @@
         <v>300568</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" s="4">
         <v>-3.97</v>
@@ -3829,7 +3813,7 @@
         <v>12.1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H30" s="4">
         <v>-0.99</v>
@@ -3841,7 +3825,7 @@
         <v>0.5</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="4">
@@ -3857,21 +3841,21 @@
         <v>-1.19</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U30" s="13">
+        <v>25</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" s="15">
         <v>0</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V30" s="16">
         <v>-0.76</v>
       </c>
     </row>
@@ -3886,7 +3870,7 @@
         <v>300581</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E31" s="4">
         <v>6.97</v>
@@ -3895,7 +3879,7 @@
         <v>21.19</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H31" s="4">
         <v>-3.82</v>
@@ -3907,7 +3891,7 @@
         <v>-1.65</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="4">
@@ -3923,21 +3907,21 @@
         <v>1.31</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U31" s="13">
+        <v>25</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="15">
         <v>0</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V31" s="16">
         <v>0.68</v>
       </c>
     </row>
@@ -3952,7 +3936,7 @@
         <v>300589</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E32" s="4">
         <v>-3.07</v>
@@ -3961,7 +3945,7 @@
         <v>14.54</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H32" s="4">
         <v>-1.51</v>
@@ -3973,7 +3957,7 @@
         <v>0.28</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="4">
@@ -3989,21 +3973,21 @@
         <v>-0.75</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U32" s="13">
+        <v>25</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" s="15">
         <v>0</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V32" s="16">
         <v>6.54</v>
       </c>
     </row>
@@ -4018,7 +4002,7 @@
         <v>300591</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E33" s="4">
         <v>0.17</v>
@@ -4027,7 +4011,7 @@
         <v>11.59</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H33" s="4">
         <v>1.21</v>
@@ -4039,7 +4023,7 @@
         <v>11.13</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="4">
@@ -4055,21 +4039,21 @@
         <v>-0.1</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U33" s="13">
+        <v>25</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U33" s="15">
         <v>0</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="16">
         <v>2.38</v>
       </c>
     </row>
@@ -4084,7 +4068,7 @@
         <v>300600</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E34" s="4">
         <v>0.78</v>
@@ -4093,7 +4077,7 @@
         <v>14.27</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H34" s="4">
         <v>7.22</v>
@@ -4105,7 +4089,7 @@
         <v>7.43</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="4">
@@ -4121,21 +4105,21 @@
         <v>-0.09</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T34" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U34" s="13">
+        <v>25</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" s="15">
         <v>0</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V34" s="16">
         <v>4.7</v>
       </c>
     </row>
@@ -4150,7 +4134,7 @@
         <v>300619</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E35" s="4">
         <v>-9.85</v>
@@ -4159,7 +4143,7 @@
         <v>25.98</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H35" s="4">
         <v>1.62</v>
@@ -4171,7 +4155,7 @@
         <v>1.92</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="4">
@@ -4187,21 +4171,21 @@
         <v>-0.73</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U35" s="16">
+        <v>25</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="18">
         <v>1</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="16">
         <v>5.6</v>
       </c>
     </row>
@@ -4216,7 +4200,7 @@
         <v>300645</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E36" s="4">
         <v>8.57</v>
@@ -4225,7 +4209,7 @@
         <v>22.42</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H36" s="4">
         <v>-4.37</v>
@@ -4237,7 +4221,7 @@
         <v>-2.32</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="4">
@@ -4253,21 +4237,21 @@
         <v>0.06</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U36" s="13">
+        <v>25</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U36" s="15">
         <v>0</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V36" s="16">
         <v>5.87</v>
       </c>
     </row>
@@ -4282,7 +4266,7 @@
         <v>300649</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E37" s="6">
         <v>20</v>
@@ -4291,7 +4275,7 @@
         <v>20.88</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H37" s="4">
         <v>6.8</v>
@@ -4303,7 +4287,7 @@
         <v>14.94</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="4">
@@ -4319,21 +4303,21 @@
         <v>5.24</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T37" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U37" s="13">
+        <v>25</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U37" s="15">
         <v>0</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="16">
         <v>2</v>
       </c>
     </row>
@@ -4348,7 +4332,7 @@
         <v>300665</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E38" s="4">
         <v>-3.59</v>
@@ -4357,7 +4341,7 @@
         <v>8.87</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H38" s="4">
         <v>3.83</v>
@@ -4369,7 +4353,7 @@
         <v>6.65</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="4">
@@ -4385,21 +4369,21 @@
         <v>-0.64</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U38" s="13">
+        <v>25</v>
+      </c>
+      <c r="R38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U38" s="15">
         <v>0</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V38" s="16">
         <v>1.12</v>
       </c>
     </row>
@@ -4414,7 +4398,7 @@
         <v>300670</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E39" s="4">
         <v>-6.09</v>
@@ -4423,7 +4407,7 @@
         <v>7.71</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H39" s="4">
         <v>1.95</v>
@@ -4435,7 +4419,7 @@
         <v>3.24</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="4">
@@ -4450,22 +4434,22 @@
       <c r="P39" s="11">
         <v>1.13</v>
       </c>
-      <c r="Q39" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R39" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U39" s="13">
+      <c r="Q39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="15">
         <v>0</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="16">
         <v>3.63</v>
       </c>
     </row>
@@ -4480,7 +4464,7 @@
         <v>300682</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E40" s="4">
         <v>2.81</v>
@@ -4489,7 +4473,7 @@
         <v>21.95</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H40" s="4">
         <v>2.05</v>
@@ -4501,7 +4485,7 @@
         <v>4.05</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="4">
@@ -4517,21 +4501,21 @@
         <v>0.69</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U40" s="13">
+        <v>25</v>
+      </c>
+      <c r="R40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U40" s="15">
         <v>0</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V40" s="16">
         <v>2.19</v>
       </c>
     </row>
@@ -4546,7 +4530,7 @@
         <v>300697</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E41" s="4">
         <v>-8.48</v>
@@ -4555,7 +4539,7 @@
         <v>14.67</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H41" s="4">
         <v>-0.48</v>
@@ -4567,7 +4551,7 @@
         <v>0.48</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="4">
@@ -4583,21 +4567,21 @@
         <v>-0.78</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U41" s="13">
+        <v>25</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U41" s="15">
         <v>0</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V41" s="16">
         <v>4.41</v>
       </c>
     </row>
@@ -4612,7 +4596,7 @@
         <v>300722</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E42" s="4">
         <v>-2.33</v>
@@ -4621,7 +4605,7 @@
         <v>35.2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H42" s="4">
         <v>0.57</v>
@@ -4633,7 +4617,7 @@
         <v>1.53</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="4">
@@ -4649,21 +4633,21 @@
         <v>-0.39</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U42" s="13">
+        <v>25</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U42" s="15">
         <v>0</v>
       </c>
-      <c r="V42" s="14">
+      <c r="V42" s="16">
         <v>3.33</v>
       </c>
     </row>
@@ -4678,7 +4662,7 @@
         <v>300753</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" s="4">
         <v>3.98</v>
@@ -4687,7 +4671,7 @@
         <v>32.66</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H43" s="4">
         <v>-1.68</v>
@@ -4699,7 +4683,7 @@
         <v>1.93</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="4">
@@ -4715,21 +4699,21 @@
         <v>0.72</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" s="13">
+        <v>25</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U43" s="15">
         <v>0</v>
       </c>
-      <c r="V43" s="14">
+      <c r="V43" s="16">
         <v>3.42</v>
       </c>
     </row>
@@ -4744,7 +4728,7 @@
         <v>300773</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E44" s="4">
         <v>3.12</v>
@@ -4753,7 +4737,7 @@
         <v>29.77</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H44" s="4">
         <v>4.33</v>
@@ -4765,7 +4749,7 @@
         <v>7.42</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="4">
@@ -4781,21 +4765,21 @@
         <v>0.61</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T44" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U44" s="13">
+        <v>25</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U44" s="15">
         <v>0</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V44" s="16">
         <v>0.15</v>
       </c>
     </row>
@@ -4810,7 +4794,7 @@
         <v>300803</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E45" s="4">
         <v>1.66</v>
@@ -4819,7 +4803,7 @@
         <v>77.74</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H45" s="4">
         <v>1.31</v>
@@ -4831,7 +4815,7 @@
         <v>3.74</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="4">
@@ -4847,21 +4831,21 @@
         <v>0.51</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U45" s="16">
+        <v>25</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U45" s="18">
         <v>1</v>
       </c>
-      <c r="V45" s="14">
+      <c r="V45" s="16">
         <v>11.21</v>
       </c>
     </row>
@@ -4876,7 +4860,7 @@
         <v>300810</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E46" s="4">
         <v>-8.16</v>
@@ -4885,7 +4869,7 @@
         <v>45.92</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H46" s="4">
         <v>0.09</v>
@@ -4897,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="4">
@@ -4913,21 +4897,21 @@
         <v>-1.03</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U46" s="13">
+        <v>25</v>
+      </c>
+      <c r="R46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U46" s="15">
         <v>0</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V46" s="16">
         <v>0.22</v>
       </c>
     </row>
@@ -4942,7 +4926,7 @@
         <v>300872</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E47" s="6">
         <v>10.19</v>
@@ -4951,7 +4935,7 @@
         <v>22.81</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H47" s="4">
         <v>3.51</v>
@@ -4963,7 +4947,7 @@
         <v>5.61</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="4">
@@ -4979,21 +4963,21 @@
         <v>2.42</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U47" s="13">
+        <v>25</v>
+      </c>
+      <c r="R47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U47" s="15">
         <v>0</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V47" s="16">
         <v>0.41</v>
       </c>
     </row>
@@ -5008,7 +4992,7 @@
         <v>300875</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E48" s="4">
         <v>4.58</v>
@@ -5017,7 +5001,7 @@
         <v>45.66</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H48" s="4">
         <v>-0.9</v>
@@ -5029,7 +5013,7 @@
         <v>2.89</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="4">
@@ -5045,21 +5029,21 @@
         <v>0.72</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U48" s="13">
+        <v>25</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U48" s="15">
         <v>0</v>
       </c>
-      <c r="V48" s="14">
+      <c r="V48" s="16">
         <v>3.76</v>
       </c>
     </row>
@@ -5074,7 +5058,7 @@
         <v>300903</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E49" s="4">
         <v>-0.37</v>
@@ -5083,7 +5067,7 @@
         <v>10.73</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H49" s="4">
         <v>-1.86</v>
@@ -5095,7 +5079,7 @@
         <v>1.58</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="4">
@@ -5111,21 +5095,21 @@
         <v>-0.85</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U49" s="16">
+        <v>25</v>
+      </c>
+      <c r="R49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U49" s="18">
         <v>1</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V49" s="16">
         <v>12.18</v>
       </c>
     </row>
@@ -5140,7 +5124,7 @@
         <v>300971</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E50" s="4">
         <v>4.58</v>
@@ -5149,7 +5133,7 @@
         <v>24.43</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H50" s="4">
         <v>-0.74</v>
@@ -5161,7 +5145,7 @@
         <v>0.61</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="4">
@@ -5177,21 +5161,21 @@
         <v>-0.29</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U50" s="13">
+        <v>25</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U50" s="15">
         <v>0</v>
       </c>
-      <c r="V50" s="14">
+      <c r="V50" s="16">
         <v>2.45</v>
       </c>
     </row>
@@ -5206,7 +5190,7 @@
         <v>300991</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E51" s="4">
         <v>-6.27</v>
@@ -5215,7 +5199,7 @@
         <v>29.76</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H51" s="4">
         <v>6.12</v>
@@ -5227,7 +5211,7 @@
         <v>9.48</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="4">
@@ -5243,21 +5227,21 @@
         <v>-0.22</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T51" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U51" s="13">
+        <v>25</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U51" s="15">
         <v>0</v>
       </c>
-      <c r="V51" s="14">
+      <c r="V51" s="16">
         <v>-0.27</v>
       </c>
     </row>
@@ -5272,7 +5256,7 @@
         <v>300993</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E52" s="4">
         <v>-9.06</v>
@@ -5281,7 +5265,7 @@
         <v>15.65</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H52" s="4">
         <v>4.47</v>
@@ -5293,7 +5277,7 @@
         <v>9.9</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="4">
@@ -5309,21 +5293,21 @@
         <v>-0.59</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T52" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U52" s="13">
+        <v>25</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U52" s="15">
         <v>0</v>
       </c>
-      <c r="V52" s="14">
+      <c r="V52" s="16">
         <v>1.39</v>
       </c>
     </row>
@@ -5338,7 +5322,7 @@
         <v>301007</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E53" s="4">
         <v>4.55</v>
@@ -5347,7 +5331,7 @@
         <v>31.26</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H53" s="4">
         <v>-2.82</v>
@@ -5359,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="4">
@@ -5375,21 +5359,21 @@
         <v>1.09</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U53" s="13">
+        <v>25</v>
+      </c>
+      <c r="R53" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S53" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U53" s="15">
         <v>0</v>
       </c>
-      <c r="V53" s="14">
+      <c r="V53" s="16">
         <v>-0.14</v>
       </c>
     </row>
@@ -5404,7 +5388,7 @@
         <v>301024</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E54" s="6">
         <v>19.99</v>
@@ -5413,7 +5397,7 @@
         <v>58.1</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H54" s="4">
         <v>-0.9</v>
@@ -5425,7 +5409,7 @@
         <v>8.23</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="4">
@@ -5441,21 +5425,21 @@
         <v>2.37</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T54" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U54" s="16">
+        <v>25</v>
+      </c>
+      <c r="R54" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T54" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U54" s="18">
         <v>1</v>
       </c>
-      <c r="V54" s="14">
+      <c r="V54" s="16">
         <v>0.41</v>
       </c>
     </row>
@@ -5470,7 +5454,7 @@
         <v>301132</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E55" s="4">
         <v>2.88</v>
@@ -5479,7 +5463,7 @@
         <v>36.39</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H55" s="4">
         <v>-3</v>
@@ -5491,7 +5475,7 @@
         <v>1.37</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="4">
@@ -5506,22 +5490,22 @@
       <c r="P55" s="11">
         <v>0.35</v>
       </c>
-      <c r="Q55" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U55" s="13">
+      <c r="Q55" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U55" s="15">
         <v>0</v>
       </c>
-      <c r="V55" s="14">
+      <c r="V55" s="16">
         <v>4.8</v>
       </c>
     </row>
@@ -5536,7 +5520,7 @@
         <v>301137</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E56" s="4">
         <v>-0.36</v>
@@ -5545,7 +5529,7 @@
         <v>38.41</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H56" s="4">
         <v>3.75</v>
@@ -5557,7 +5541,7 @@
         <v>5.7</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="4">
@@ -5573,21 +5557,21 @@
         <v>0.26</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U56" s="13">
+        <v>25</v>
+      </c>
+      <c r="R56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T56" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U56" s="15">
         <v>0</v>
       </c>
-      <c r="V56" s="14">
+      <c r="V56" s="16">
         <v>1.96</v>
       </c>
     </row>
@@ -5602,7 +5586,7 @@
         <v>301141</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E57" s="4">
         <v>-5.48</v>
@@ -5611,7 +5595,7 @@
         <v>58.6</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H57" s="4">
         <v>10.46</v>
@@ -5623,7 +5607,7 @@
         <v>11.59</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="4">
@@ -5639,21 +5623,21 @@
         <v>-2.37</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T57" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U57" s="13">
+        <v>25</v>
+      </c>
+      <c r="R57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T57" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U57" s="15">
         <v>0</v>
       </c>
-      <c r="V57" s="14">
+      <c r="V57" s="16">
         <v>-0.72</v>
       </c>
     </row>
@@ -5668,7 +5652,7 @@
         <v>301150</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E58" s="4">
         <v>2.01</v>
@@ -5677,7 +5661,7 @@
         <v>24.37</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H58" s="4">
         <v>-4.39</v>
@@ -5689,7 +5673,7 @@
         <v>3.32</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="4">
@@ -5705,21 +5689,21 @@
         <v>-0.73</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U58" s="13">
+        <v>25</v>
+      </c>
+      <c r="R58" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T58" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U58" s="15">
         <v>0</v>
       </c>
-      <c r="V58" s="14">
+      <c r="V58" s="16">
         <v>2.92</v>
       </c>
     </row>
@@ -5734,7 +5718,7 @@
         <v>301176</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E59" s="4">
         <v>5.94</v>
@@ -5743,7 +5727,7 @@
         <v>34.58</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H59" s="4">
         <v>-8.59</v>
@@ -5755,7 +5739,7 @@
         <v>-1.19</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="4">
@@ -5771,21 +5755,21 @@
         <v>1.89</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U59" s="16">
+        <v>25</v>
+      </c>
+      <c r="R59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U59" s="18">
         <v>1</v>
       </c>
-      <c r="V59" s="14">
+      <c r="V59" s="16">
         <v>2.04</v>
       </c>
     </row>
@@ -5800,7 +5784,7 @@
         <v>301205</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E60" s="4">
         <v>-4.38</v>
@@ -5809,7 +5793,7 @@
         <v>92.37</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H60" s="4">
         <v>2.8</v>
@@ -5821,7 +5805,7 @@
         <v>2.86</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="4">
@@ -5837,21 +5821,21 @@
         <v>-1.95</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U60" s="13">
+        <v>25</v>
+      </c>
+      <c r="R60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U60" s="15">
         <v>0</v>
       </c>
-      <c r="V60" s="14">
+      <c r="V60" s="16">
         <v>-0.14</v>
       </c>
     </row>
@@ -5866,7 +5850,7 @@
         <v>301206</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E61" s="4">
         <v>-1.32</v>
@@ -5875,7 +5859,7 @@
         <v>30.73</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H61" s="4">
         <v>1.37</v>
@@ -5887,7 +5871,7 @@
         <v>3.97</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="4">
@@ -5903,21 +5887,21 @@
         <v>-0.03</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U61" s="13">
+        <v>25</v>
+      </c>
+      <c r="R61" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T61" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U61" s="15">
         <v>0</v>
       </c>
-      <c r="V61" s="14">
+      <c r="V61" s="16">
         <v>2.59</v>
       </c>
     </row>
@@ -5932,7 +5916,7 @@
         <v>301306</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E62" s="4">
         <v>0.44</v>
@@ -5941,7 +5925,7 @@
         <v>56.95</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H62" s="4">
         <v>3.42</v>
@@ -5953,7 +5937,7 @@
         <v>4.65</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="4">
@@ -5969,21 +5953,21 @@
         <v>-4.17</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U62" s="13">
+        <v>25</v>
+      </c>
+      <c r="R62" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T62" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U62" s="15">
         <v>0</v>
       </c>
-      <c r="V62" s="14">
+      <c r="V62" s="16">
         <v>-0.38</v>
       </c>
     </row>
@@ -5998,7 +5982,7 @@
         <v>301312</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E63" s="4">
         <v>-9.26</v>
@@ -6007,7 +5991,7 @@
         <v>42.7</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H63" s="4">
         <v>-0.19</v>
@@ -6019,7 +6003,7 @@
         <v>1.71</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="4">
@@ -6035,21 +6019,21 @@
         <v>-4.15</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U63" s="13">
+        <v>25</v>
+      </c>
+      <c r="R63" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T63" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U63" s="15">
         <v>0</v>
       </c>
-      <c r="V63" s="14">
+      <c r="V63" s="16">
         <v>0.29</v>
       </c>
     </row>
@@ -6064,7 +6048,7 @@
         <v>301345</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E64" s="4">
         <v>1.5</v>
@@ -6073,7 +6057,7 @@
         <v>135.01</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H64" s="4">
         <v>0.73</v>
@@ -6085,7 +6069,7 @@
         <v>1.3</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="4">
@@ -6101,21 +6085,21 @@
         <v>0.65</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U64" s="13">
+        <v>25</v>
+      </c>
+      <c r="R64" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T64" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" s="15">
         <v>0</v>
       </c>
-      <c r="V64" s="14">
+      <c r="V64" s="16">
         <v>1.71</v>
       </c>
     </row>
@@ -6130,7 +6114,7 @@
         <v>301357</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E65" s="4">
         <v>-0.24</v>
@@ -6139,7 +6123,7 @@
         <v>80</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H65" s="4">
         <v>5</v>
@@ -6151,7 +6135,7 @@
         <v>5.63</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="4">
@@ -6167,21 +6151,21 @@
         <v>-0.86</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U65" s="13">
+        <v>25</v>
+      </c>
+      <c r="R65" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T65" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U65" s="15">
         <v>0</v>
       </c>
-      <c r="V65" s="14">
+      <c r="V65" s="16">
         <v>3.2</v>
       </c>
     </row>
@@ -6196,7 +6180,7 @@
         <v>301379</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E66" s="4">
         <v>0.68</v>
@@ -6205,7 +6189,7 @@
         <v>26.73</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H66" s="4">
         <v>-2.24</v>
@@ -6217,7 +6201,7 @@
         <v>1.01</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="4">
@@ -6233,21 +6217,21 @@
         <v>0.14</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U66" s="13">
+        <v>25</v>
+      </c>
+      <c r="R66" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T66" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U66" s="15">
         <v>0</v>
       </c>
-      <c r="V66" s="14">
+      <c r="V66" s="16">
         <v>2.17</v>
       </c>
     </row>
@@ -6262,7 +6246,7 @@
         <v>301389</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E67" s="6">
         <v>20</v>
@@ -6271,7 +6255,7 @@
         <v>31.92</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H67" s="4">
         <v>1.54</v>
@@ -6299,21 +6283,21 @@
         <v>3.2</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T67" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U67" s="16">
+        <v>25</v>
+      </c>
+      <c r="R67" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S67" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T67" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U67" s="18">
         <v>1</v>
       </c>
-      <c r="V67" s="14">
+      <c r="V67" s="16">
         <v>4.41</v>
       </c>
     </row>
@@ -6328,7 +6312,7 @@
         <v>301408</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E68" s="4">
         <v>0.56</v>
@@ -6337,7 +6321,7 @@
         <v>14.32</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H68" s="4">
         <v>2.72</v>
@@ -6349,7 +6333,7 @@
         <v>6.49</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="4">
@@ -6365,21 +6349,21 @@
         <v>0.64</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T68" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U68" s="13">
+        <v>25</v>
+      </c>
+      <c r="R68" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T68" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U68" s="15">
         <v>0</v>
       </c>
-      <c r="V68" s="14">
+      <c r="V68" s="16">
         <v>5.38</v>
       </c>
     </row>
@@ -6394,7 +6378,7 @@
         <v>301421</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E69" s="4">
         <v>-1.05</v>
@@ -6403,7 +6387,7 @@
         <v>73.62</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H69" s="4">
         <v>-1.6</v>
@@ -6415,7 +6399,7 @@
         <v>2.5</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="4">
@@ -6431,21 +6415,21 @@
         <v>-0.42</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U69" s="13">
+        <v>25</v>
+      </c>
+      <c r="R69" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T69" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U69" s="15">
         <v>0</v>
       </c>
-      <c r="V69" s="14">
+      <c r="V69" s="16">
         <v>5.75</v>
       </c>
     </row>
@@ -6460,7 +6444,7 @@
         <v>301511</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E70" s="4">
         <v>3.92</v>
@@ -6469,7 +6453,7 @@
         <v>24.4</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H70" s="4">
         <v>3.36</v>
@@ -6481,7 +6465,7 @@
         <v>16.76</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="4">
@@ -6497,21 +6481,21 @@
         <v>0.23</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U70" s="13">
+        <v>25</v>
+      </c>
+      <c r="R70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T70" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U70" s="15">
         <v>0</v>
       </c>
-      <c r="V70" s="14">
+      <c r="V70" s="16">
         <v>4.67</v>
       </c>
     </row>
@@ -6526,7 +6510,7 @@
         <v>301533</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E71" s="4">
         <v>-9.59</v>
@@ -6535,7 +6519,7 @@
         <v>41.03</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H71" s="4">
         <v>3.17</v>
@@ -6563,21 +6547,21 @@
         <v>-3.3</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U71" s="13">
+        <v>25</v>
+      </c>
+      <c r="R71" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S71" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T71" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U71" s="15">
         <v>0</v>
       </c>
-      <c r="V71" s="14">
+      <c r="V71" s="16">
         <v>2.7</v>
       </c>
     </row>
@@ -6592,7 +6576,7 @@
         <v>688062</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E72" s="4">
         <v>0.49</v>
@@ -6601,7 +6585,7 @@
         <v>30.63</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H72" s="4">
         <v>1.27</v>
@@ -6613,7 +6597,7 @@
         <v>9.96</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="4">
@@ -6629,21 +6613,21 @@
         <v>0.02</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T72" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U72" s="13">
+        <v>25</v>
+      </c>
+      <c r="R72" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T72" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U72" s="15">
         <v>0</v>
       </c>
-      <c r="V72" s="14">
+      <c r="V72" s="16">
         <v>1.54</v>
       </c>
     </row>
@@ -6658,7 +6642,7 @@
         <v>688117</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E73" s="4">
         <v>4.87</v>
@@ -6667,7 +6651,7 @@
         <v>35.29</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H73" s="4">
         <v>-0.77</v>
@@ -6679,7 +6663,7 @@
         <v>3.71</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="4">
@@ -6695,21 +6679,21 @@
         <v>-0.09</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U73" s="13">
+        <v>25</v>
+      </c>
+      <c r="R73" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T73" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U73" s="15">
         <v>0</v>
       </c>
-      <c r="V73" s="14">
+      <c r="V73" s="16">
         <v>9.25</v>
       </c>
     </row>
@@ -6724,7 +6708,7 @@
         <v>688199</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E74" s="4">
         <v>-2.5</v>
@@ -6733,7 +6717,7 @@
         <v>26.49</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H74" s="4">
         <v>2.15</v>
@@ -6745,7 +6729,7 @@
         <v>5.25</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="4">
@@ -6761,21 +6745,21 @@
         <v>-0.82</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T74" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U74" s="13">
+        <v>25</v>
+      </c>
+      <c r="R74" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S74" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U74" s="15">
         <v>0</v>
       </c>
-      <c r="V74" s="14">
+      <c r="V74" s="16">
         <v>4.67</v>
       </c>
     </row>
@@ -6790,7 +6774,7 @@
         <v>688321</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E75" s="4">
         <v>0.58</v>
@@ -6799,7 +6783,7 @@
         <v>31</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H75" s="4">
         <v>5.81</v>
@@ -6811,7 +6795,7 @@
         <v>12.74</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="4">
@@ -6827,21 +6811,21 @@
         <v>-0.27</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T75" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U75" s="13">
+        <v>25</v>
+      </c>
+      <c r="R75" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T75" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U75" s="15">
         <v>0</v>
       </c>
-      <c r="V75" s="14">
+      <c r="V75" s="16">
         <v>4.23</v>
       </c>
     </row>
@@ -6856,7 +6840,7 @@
         <v>688353</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E76" s="4">
         <v>-9.05</v>
@@ -6865,7 +6849,7 @@
         <v>36.2</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H76" s="4">
         <v>-5.36</v>
@@ -6877,7 +6861,7 @@
         <v>0.69</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="4">
@@ -6893,21 +6877,21 @@
         <v>-1.71</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U76" s="13">
+        <v>25</v>
+      </c>
+      <c r="R76" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S76" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T76" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U76" s="15">
         <v>0</v>
       </c>
-      <c r="V76" s="14">
+      <c r="V76" s="16">
         <v>1.05</v>
       </c>
     </row>
@@ -6922,7 +6906,7 @@
         <v>688499</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E77" s="4">
         <v>-0.58</v>
@@ -6931,7 +6915,7 @@
         <v>39.62</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H77" s="4">
         <v>0.45</v>
@@ -6943,7 +6927,7 @@
         <v>1.21</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="4">
@@ -6959,21 +6943,21 @@
         <v>-0.03</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U77" s="13">
+        <v>25</v>
+      </c>
+      <c r="R77" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T77" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U77" s="15">
         <v>0</v>
       </c>
-      <c r="V77" s="14">
+      <c r="V77" s="16">
         <v>3.82</v>
       </c>
     </row>
@@ -6988,7 +6972,7 @@
         <v>688543</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E78" s="4">
         <v>-0.89</v>
@@ -6997,7 +6981,7 @@
         <v>56.9</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H78" s="4">
         <v>-0.7</v>
@@ -7009,7 +6993,7 @@
         <v>1.12</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="4">
@@ -7025,21 +7009,21 @@
         <v>-0.06</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U78" s="13">
+        <v>25</v>
+      </c>
+      <c r="R78" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S78" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T78" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U78" s="15">
         <v>0</v>
       </c>
-      <c r="V78" s="14">
+      <c r="V78" s="16">
         <v>4.81</v>
       </c>
     </row>
@@ -7054,7 +7038,7 @@
         <v>688573</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E79" s="4">
         <v>-12.03</v>
@@ -7063,7 +7047,7 @@
         <v>30.7</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H79" s="4">
         <v>-1.01</v>
@@ -7075,7 +7059,7 @@
         <v>2.25</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="4">
@@ -7091,21 +7075,21 @@
         <v>-0.24</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R79" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S79" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T79" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U79" s="13">
+        <v>25</v>
+      </c>
+      <c r="R79" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T79" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U79" s="15">
         <v>0</v>
       </c>
-      <c r="V79" s="14">
+      <c r="V79" s="16">
         <v>3.41</v>
       </c>
     </row>
@@ -7120,7 +7104,7 @@
         <v>688591</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E80" s="4">
         <v>-1.74</v>
@@ -7129,7 +7113,7 @@
         <v>47.55</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H80" s="4">
         <v>-0.95</v>
@@ -7141,7 +7125,7 @@
         <v>1.72</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="4">
@@ -7157,223 +7141,223 @@
         <v>-0.43</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U80" s="16">
+        <v>25</v>
+      </c>
+      <c r="R80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U80" s="18">
         <v>1</v>
       </c>
-      <c r="V80" s="14">
+      <c r="V80" s="16">
         <v>7.76</v>
       </c>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="25"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="17"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="25"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="17"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="23"/>
-      <c r="R83" s="26"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="14"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="26"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="14"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="25"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="17"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="25"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="23"/>
-      <c r="R87" s="26"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="14"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="23"/>
-      <c r="R88" s="26"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="14"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="23"/>
-      <c r="R89" s="26"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="14"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="23"/>
-      <c r="R90" s="26"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
